--- a/biology/Botanique/Bromus_pannonicus/Bromus_pannonicus.xlsx
+++ b/biology/Botanique/Bromus_pannonicus/Bromus_pannonicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bromus pannonicus, de nom commun brome de Pannonie[1] ou brome de Hongrie[2], est une espèce de plante européenne de la famille des Poaceae et du genre Bromus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bromus pannonicus, de nom commun brome de Pannonie ou brome de Hongrie, est une espèce de plante européenne de la famille des Poaceae et du genre Bromus.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bromus pannonicus peut atteindre une hauteur de 30 à 70 cm) tandis que ses feuilles mesurent 2 à 3 mm de large. Elle a également une panicule ouverte qui peut être lancéolée ou oblongue et mesure 8 à 12 cm de longueur. Les épillets de 14 à 20 mm de long sont également oblongs et contiennent de 5 à 7 petites fleurs fertiles[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bromus pannonicus peut atteindre une hauteur de 30 à 70 cm) tandis que ses feuilles mesurent 2 à 3 mm de large. Elle a également une panicule ouverte qui peut être lancéolée ou oblongue et mesure 8 à 12 cm de longueur. Les épillets de 14 à 20 mm de long sont également oblongs et contiennent de 5 à 7 petites fleurs fertiles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bromus pannonicus est présente essentiellement en Tchéquie, en Hongrie, en Roumanie et les Balkans. Elle est présente également en France[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bromus pannonicus est présente essentiellement en Tchéquie, en Hongrie, en Roumanie et les Balkans. Elle est présente également en France.
 </t>
         </is>
       </c>
